--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.939755666666667</v>
+        <v>0.7428659999999999</v>
       </c>
       <c r="H2">
-        <v>11.819267</v>
+        <v>2.228598</v>
       </c>
       <c r="I2">
-        <v>0.5863278129940782</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="J2">
-        <v>0.5863278129940781</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6126093333333333</v>
+        <v>0.9613523333333335</v>
       </c>
       <c r="N2">
-        <v>1.837828</v>
+        <v>2.884057</v>
       </c>
       <c r="O2">
-        <v>0.06259089811836467</v>
+        <v>0.117240948966235</v>
       </c>
       <c r="P2">
-        <v>0.06259089811836467</v>
+        <v>0.117240948966235</v>
       </c>
       <c r="Q2">
-        <v>2.413531092452889</v>
+        <v>0.714155962454</v>
       </c>
       <c r="R2">
-        <v>21.721779832076</v>
+        <v>6.427403662086</v>
       </c>
       <c r="S2">
-        <v>0.03669878440707592</v>
+        <v>0.00896640321579795</v>
       </c>
       <c r="T2">
-        <v>0.03669878440707591</v>
+        <v>0.00896640321579795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.939755666666667</v>
+        <v>0.7428659999999999</v>
       </c>
       <c r="H3">
-        <v>11.819267</v>
+        <v>2.228598</v>
       </c>
       <c r="I3">
-        <v>0.5863278129940782</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="J3">
-        <v>0.5863278129940781</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.270643</v>
       </c>
       <c r="O3">
-        <v>0.1454452652331487</v>
+        <v>0.17360760831565</v>
       </c>
       <c r="P3">
-        <v>0.1454452652331487</v>
+        <v>0.17360760831565</v>
       </c>
       <c r="Q3">
-        <v>5.608429986520111</v>
+        <v>1.057505160946</v>
       </c>
       <c r="R3">
-        <v>50.475869878681</v>
+        <v>9.517546448513999</v>
       </c>
       <c r="S3">
-        <v>0.08527860427449574</v>
+        <v>0.01327723659023556</v>
       </c>
       <c r="T3">
-        <v>0.08527860427449573</v>
+        <v>0.01327723659023556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.939755666666667</v>
+        <v>0.7428659999999999</v>
       </c>
       <c r="H4">
-        <v>11.819267</v>
+        <v>2.228598</v>
       </c>
       <c r="I4">
-        <v>0.5863278129940782</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="J4">
-        <v>0.5863278129940781</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.189604</v>
+        <v>1.214815</v>
       </c>
       <c r="N4">
-        <v>3.568812</v>
+        <v>3.644445</v>
       </c>
       <c r="O4">
-        <v>0.1215430107146029</v>
+        <v>0.1481517841898583</v>
       </c>
       <c r="P4">
-        <v>0.1215430107146029</v>
+        <v>0.1481517841898583</v>
       </c>
       <c r="Q4">
-        <v>4.686749100089333</v>
+        <v>0.9024447597899998</v>
       </c>
       <c r="R4">
-        <v>42.180741900804</v>
+        <v>8.122002838109999</v>
       </c>
       <c r="S4">
-        <v>0.07126404765700894</v>
+        <v>0.01133041523374842</v>
       </c>
       <c r="T4">
-        <v>0.07126404765700893</v>
+        <v>0.01133041523374842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.939755666666667</v>
+        <v>0.7428659999999999</v>
       </c>
       <c r="H5">
-        <v>11.819267</v>
+        <v>2.228598</v>
       </c>
       <c r="I5">
-        <v>0.5863278129940782</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="J5">
-        <v>0.5863278129940781</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.333715</v>
+        <v>0.3083506666666667</v>
       </c>
       <c r="N5">
-        <v>4.001145</v>
+        <v>0.925052</v>
       </c>
       <c r="O5">
-        <v>0.1362669733249272</v>
+        <v>0.03760465702415506</v>
       </c>
       <c r="P5">
-        <v>0.1362669733249272</v>
+        <v>0.03760465702415506</v>
       </c>
       <c r="Q5">
-        <v>5.254511228968333</v>
+        <v>0.229063226344</v>
       </c>
       <c r="R5">
-        <v>47.29060106071501</v>
+        <v>2.061569037096</v>
       </c>
       <c r="S5">
-        <v>0.07989711645292694</v>
+        <v>0.002875944971815857</v>
       </c>
       <c r="T5">
-        <v>0.07989711645292692</v>
+        <v>0.002875944971815857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.939755666666667</v>
+        <v>0.7428659999999999</v>
       </c>
       <c r="H6">
-        <v>11.819267</v>
+        <v>2.228598</v>
       </c>
       <c r="I6">
-        <v>0.5863278129940782</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="J6">
-        <v>0.5863278129940781</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.375897666666667</v>
+        <v>3.81316</v>
       </c>
       <c r="N6">
-        <v>10.127693</v>
+        <v>11.43948</v>
       </c>
       <c r="O6">
-        <v>0.3449187849663163</v>
+        <v>0.4650308544110832</v>
       </c>
       <c r="P6">
-        <v>0.3449187849663163</v>
+        <v>0.4650308544110832</v>
       </c>
       <c r="Q6">
-        <v>13.30021196233678</v>
+        <v>2.83266691656</v>
       </c>
       <c r="R6">
-        <v>119.701907661031</v>
+        <v>25.49400224904</v>
       </c>
       <c r="S6">
-        <v>0.202235476849875</v>
+        <v>0.03556482769205196</v>
       </c>
       <c r="T6">
-        <v>0.2022354768498749</v>
+        <v>0.03556482769205196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.939755666666667</v>
+        <v>0.7428659999999999</v>
       </c>
       <c r="H7">
-        <v>11.819267</v>
+        <v>2.228598</v>
       </c>
       <c r="I7">
-        <v>0.5863278129940782</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="J7">
-        <v>0.5863278129940781</v>
+        <v>0.07647842579626549</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.852141</v>
+        <v>0.4785743333333333</v>
       </c>
       <c r="N7">
-        <v>5.556423000000001</v>
+        <v>1.435723</v>
       </c>
       <c r="O7">
-        <v>0.1892350676426403</v>
+        <v>0.05836414709301852</v>
       </c>
       <c r="P7">
-        <v>0.1892350676426403</v>
+        <v>0.05836414709301852</v>
       </c>
       <c r="Q7">
-        <v>7.296983000215667</v>
+        <v>0.3555166007059999</v>
       </c>
       <c r="R7">
-        <v>65.67284700194101</v>
+        <v>3.199649406353999</v>
       </c>
       <c r="S7">
-        <v>0.1109537833526957</v>
+        <v>0.004463598092615741</v>
       </c>
       <c r="T7">
-        <v>0.1109537833526957</v>
+        <v>0.004463598092615741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5976133333333333</v>
+        <v>1.185428333333333</v>
       </c>
       <c r="H8">
-        <v>1.79284</v>
+        <v>3.556285</v>
       </c>
       <c r="I8">
-        <v>0.08893884504413879</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="J8">
-        <v>0.08893884504413878</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6126093333333333</v>
+        <v>0.9613523333333335</v>
       </c>
       <c r="N8">
-        <v>1.837828</v>
+        <v>2.884057</v>
       </c>
       <c r="O8">
-        <v>0.06259089811836467</v>
+        <v>0.117240948966235</v>
       </c>
       <c r="P8">
-        <v>0.06259089811836467</v>
+        <v>0.117240948966235</v>
       </c>
       <c r="Q8">
-        <v>0.3661035057244444</v>
+        <v>1.139614294249444</v>
       </c>
       <c r="R8">
-        <v>3.29493155152</v>
+        <v>10.256528648245</v>
       </c>
       <c r="S8">
-        <v>0.005566762188922714</v>
+        <v>0.01430813689157668</v>
       </c>
       <c r="T8">
-        <v>0.005566762188922713</v>
+        <v>0.01430813689157668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5976133333333333</v>
+        <v>1.185428333333333</v>
       </c>
       <c r="H9">
-        <v>1.79284</v>
+        <v>3.556285</v>
       </c>
       <c r="I9">
-        <v>0.08893884504413879</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="J9">
-        <v>0.08893884504413878</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.270643</v>
       </c>
       <c r="O9">
-        <v>0.1454452652331487</v>
+        <v>0.17360760831565</v>
       </c>
       <c r="P9">
-        <v>0.1454452652331487</v>
+        <v>0.17360760831565</v>
       </c>
       <c r="Q9">
-        <v>0.8507310662355555</v>
+        <v>1.687513737917222</v>
       </c>
       <c r="R9">
-        <v>7.656579596119999</v>
+        <v>15.187623641255</v>
       </c>
       <c r="S9">
-        <v>0.01293573390697468</v>
+        <v>0.02118714874881242</v>
       </c>
       <c r="T9">
-        <v>0.01293573390697468</v>
+        <v>0.02118714874881242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5976133333333333</v>
+        <v>1.185428333333333</v>
       </c>
       <c r="H10">
-        <v>1.79284</v>
+        <v>3.556285</v>
       </c>
       <c r="I10">
-        <v>0.08893884504413879</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="J10">
-        <v>0.08893884504413878</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.189604</v>
+        <v>1.214815</v>
       </c>
       <c r="N10">
-        <v>3.568812</v>
+        <v>3.644445</v>
       </c>
       <c r="O10">
-        <v>0.1215430107146029</v>
+        <v>0.1481517841898583</v>
       </c>
       <c r="P10">
-        <v>0.1215430107146029</v>
+        <v>0.1481517841898583</v>
       </c>
       <c r="Q10">
-        <v>0.7109232117866666</v>
+        <v>1.440076120758333</v>
       </c>
       <c r="R10">
-        <v>6.39830890608</v>
+        <v>12.960685086825</v>
       </c>
       <c r="S10">
-        <v>0.01080989499614417</v>
+        <v>0.01808050879501417</v>
       </c>
       <c r="T10">
-        <v>0.01080989499614417</v>
+        <v>0.01808050879501417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5976133333333333</v>
+        <v>1.185428333333333</v>
       </c>
       <c r="H11">
-        <v>1.79284</v>
+        <v>3.556285</v>
       </c>
       <c r="I11">
-        <v>0.08893884504413879</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="J11">
-        <v>0.08893884504413878</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.333715</v>
+        <v>0.3083506666666667</v>
       </c>
       <c r="N11">
-        <v>4.001145</v>
+        <v>0.925052</v>
       </c>
       <c r="O11">
-        <v>0.1362669733249272</v>
+        <v>0.03760465702415506</v>
       </c>
       <c r="P11">
-        <v>0.1362669733249272</v>
+        <v>0.03760465702415506</v>
       </c>
       <c r="Q11">
-        <v>0.7970458668666667</v>
+        <v>0.3655276168688888</v>
       </c>
       <c r="R11">
-        <v>7.173412801800001</v>
+        <v>3.28974855182</v>
       </c>
       <c r="S11">
-        <v>0.01211942722517949</v>
+        <v>0.004589288855187949</v>
       </c>
       <c r="T11">
-        <v>0.01211942722517949</v>
+        <v>0.004589288855187949</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5976133333333333</v>
+        <v>1.185428333333333</v>
       </c>
       <c r="H12">
-        <v>1.79284</v>
+        <v>3.556285</v>
       </c>
       <c r="I12">
-        <v>0.08893884504413879</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="J12">
-        <v>0.08893884504413878</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.375897666666667</v>
+        <v>3.81316</v>
       </c>
       <c r="N12">
-        <v>10.127693</v>
+        <v>11.43948</v>
       </c>
       <c r="O12">
-        <v>0.3449187849663163</v>
+        <v>0.4650308544110832</v>
       </c>
       <c r="P12">
-        <v>0.3449187849663163</v>
+        <v>0.4650308544110832</v>
       </c>
       <c r="Q12">
-        <v>2.017481457568889</v>
+        <v>4.520227903533333</v>
       </c>
       <c r="R12">
-        <v>18.15733311812</v>
+        <v>40.68205113179999</v>
       </c>
       <c r="S12">
-        <v>0.03067667836893183</v>
+        <v>0.05675256966434909</v>
       </c>
       <c r="T12">
-        <v>0.03067667836893183</v>
+        <v>0.05675256966434908</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5976133333333333</v>
+        <v>1.185428333333333</v>
       </c>
       <c r="H13">
-        <v>1.79284</v>
+        <v>3.556285</v>
       </c>
       <c r="I13">
-        <v>0.08893884504413879</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="J13">
-        <v>0.08893884504413878</v>
+        <v>0.1220404390934893</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.852141</v>
+        <v>0.4785743333333333</v>
       </c>
       <c r="N13">
-        <v>5.556423000000001</v>
+        <v>1.435723</v>
       </c>
       <c r="O13">
-        <v>0.1892350676426403</v>
+        <v>0.05836414709301852</v>
       </c>
       <c r="P13">
-        <v>0.1892350676426403</v>
+        <v>0.05836414709301852</v>
       </c>
       <c r="Q13">
-        <v>1.106864156813333</v>
+        <v>0.5673155743394444</v>
       </c>
       <c r="R13">
-        <v>9.961777411320002</v>
+        <v>5.105840169054999</v>
       </c>
       <c r="S13">
-        <v>0.0168303483579859</v>
+        <v>0.007122786138548977</v>
       </c>
       <c r="T13">
-        <v>0.0168303483579859</v>
+        <v>0.007122786138548976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.182004666666666</v>
+        <v>7.785111666666666</v>
       </c>
       <c r="H14">
-        <v>6.546014</v>
+        <v>23.355335</v>
       </c>
       <c r="I14">
-        <v>0.3247333419617831</v>
+        <v>0.8014811351102453</v>
       </c>
       <c r="J14">
-        <v>0.324733341961783</v>
+        <v>0.8014811351102452</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6126093333333333</v>
+        <v>0.9613523333333335</v>
       </c>
       <c r="N14">
-        <v>1.837828</v>
+        <v>2.884057</v>
       </c>
       <c r="O14">
-        <v>0.06259089811836467</v>
+        <v>0.117240948966235</v>
       </c>
       <c r="P14">
-        <v>0.06259089811836467</v>
+        <v>0.117240948966235</v>
       </c>
       <c r="Q14">
-        <v>1.336716424176889</v>
+        <v>7.484235266010557</v>
       </c>
       <c r="R14">
-        <v>12.030447817592</v>
+        <v>67.358117394095</v>
       </c>
       <c r="S14">
-        <v>0.02032535152236604</v>
+        <v>0.09396640885886035</v>
       </c>
       <c r="T14">
-        <v>0.02032535152236603</v>
+        <v>0.09396640885886033</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.182004666666666</v>
+        <v>7.785111666666666</v>
       </c>
       <c r="H15">
-        <v>6.546014</v>
+        <v>23.355335</v>
       </c>
       <c r="I15">
-        <v>0.3247333419617831</v>
+        <v>0.8014811351102453</v>
       </c>
       <c r="J15">
-        <v>0.324733341961783</v>
+        <v>0.8014811351102452</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.270643</v>
       </c>
       <c r="O15">
-        <v>0.1454452652331487</v>
+        <v>0.17360760831565</v>
       </c>
       <c r="P15">
-        <v>0.1454452652331487</v>
+        <v>0.17360760831565</v>
       </c>
       <c r="Q15">
-        <v>3.106187651889111</v>
+        <v>11.08247754782278</v>
       </c>
       <c r="R15">
-        <v>27.955688867002</v>
+        <v>99.742297930405</v>
       </c>
       <c r="S15">
-        <v>0.04723092705167833</v>
+        <v>0.139143222976602</v>
       </c>
       <c r="T15">
-        <v>0.04723092705167832</v>
+        <v>0.139143222976602</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.182004666666666</v>
+        <v>7.785111666666666</v>
       </c>
       <c r="H16">
-        <v>6.546014</v>
+        <v>23.355335</v>
       </c>
       <c r="I16">
-        <v>0.3247333419617831</v>
+        <v>0.8014811351102453</v>
       </c>
       <c r="J16">
-        <v>0.324733341961783</v>
+        <v>0.8014811351102452</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.189604</v>
+        <v>1.214815</v>
       </c>
       <c r="N16">
-        <v>3.568812</v>
+        <v>3.644445</v>
       </c>
       <c r="O16">
-        <v>0.1215430107146029</v>
+        <v>0.1481517841898583</v>
       </c>
       <c r="P16">
-        <v>0.1215430107146029</v>
+        <v>0.1481517841898583</v>
       </c>
       <c r="Q16">
-        <v>2.595721479485333</v>
+        <v>9.457470429341667</v>
       </c>
       <c r="R16">
-        <v>23.361493315368</v>
+        <v>85.117233864075</v>
       </c>
       <c r="S16">
-        <v>0.03946906806144981</v>
+        <v>0.1187408601610957</v>
       </c>
       <c r="T16">
-        <v>0.03946906806144981</v>
+        <v>0.1187408601610957</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.182004666666666</v>
+        <v>7.785111666666666</v>
       </c>
       <c r="H17">
-        <v>6.546014</v>
+        <v>23.355335</v>
       </c>
       <c r="I17">
-        <v>0.3247333419617831</v>
+        <v>0.8014811351102453</v>
       </c>
       <c r="J17">
-        <v>0.324733341961783</v>
+        <v>0.8014811351102452</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.333715</v>
+        <v>0.3083506666666667</v>
       </c>
       <c r="N17">
-        <v>4.001145</v>
+        <v>0.925052</v>
       </c>
       <c r="O17">
-        <v>0.1362669733249272</v>
+        <v>0.03760465702415506</v>
       </c>
       <c r="P17">
-        <v>0.1362669733249272</v>
+        <v>0.03760465702415506</v>
       </c>
       <c r="Q17">
-        <v>2.910172354003333</v>
+        <v>2.400544372491111</v>
       </c>
       <c r="R17">
-        <v>26.19155118603</v>
+        <v>21.60489935242</v>
       </c>
       <c r="S17">
-        <v>0.04425042964682074</v>
+        <v>0.03013942319715126</v>
       </c>
       <c r="T17">
-        <v>0.04425042964682073</v>
+        <v>0.03013942319715125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.182004666666666</v>
+        <v>7.785111666666666</v>
       </c>
       <c r="H18">
-        <v>6.546014</v>
+        <v>23.355335</v>
       </c>
       <c r="I18">
-        <v>0.3247333419617831</v>
+        <v>0.8014811351102453</v>
       </c>
       <c r="J18">
-        <v>0.324733341961783</v>
+        <v>0.8014811351102452</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.375897666666667</v>
+        <v>3.81316</v>
       </c>
       <c r="N18">
-        <v>10.127693</v>
+        <v>11.43948</v>
       </c>
       <c r="O18">
-        <v>0.3449187849663163</v>
+        <v>0.4650308544110832</v>
       </c>
       <c r="P18">
-        <v>0.3449187849663163</v>
+        <v>0.4650308544110832</v>
       </c>
       <c r="Q18">
-        <v>7.366224462855778</v>
+        <v>29.68587640286666</v>
       </c>
       <c r="R18">
-        <v>66.296020165702</v>
+        <v>267.1728876258</v>
       </c>
       <c r="S18">
-        <v>0.1120066297475095</v>
+        <v>0.3727134570546822</v>
       </c>
       <c r="T18">
-        <v>0.1120066297475095</v>
+        <v>0.3727134570546822</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.182004666666666</v>
+        <v>7.785111666666666</v>
       </c>
       <c r="H19">
-        <v>6.546014</v>
+        <v>23.355335</v>
       </c>
       <c r="I19">
-        <v>0.3247333419617831</v>
+        <v>0.8014811351102453</v>
       </c>
       <c r="J19">
-        <v>0.324733341961783</v>
+        <v>0.8014811351102452</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.852141</v>
+        <v>0.4785743333333333</v>
       </c>
       <c r="N19">
-        <v>5.556423000000001</v>
+        <v>1.435723</v>
       </c>
       <c r="O19">
-        <v>0.1892350676426403</v>
+        <v>0.05836414709301852</v>
       </c>
       <c r="P19">
-        <v>0.1892350676426403</v>
+        <v>0.05836414709301852</v>
       </c>
       <c r="Q19">
-        <v>4.041380305324667</v>
+        <v>3.725754625800555</v>
       </c>
       <c r="R19">
-        <v>36.372422747922</v>
+        <v>33.531791632205</v>
       </c>
       <c r="S19">
-        <v>0.06145093593195865</v>
+        <v>0.04677776286185381</v>
       </c>
       <c r="T19">
-        <v>0.06145093593195863</v>
+        <v>0.0467777628618538</v>
       </c>
     </row>
   </sheetData>
